--- a/biology/Zoologie/Corambis_insignipes/Corambis_insignipes.xlsx
+++ b/biology/Zoologie/Corambis_insignipes/Corambis_insignipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corambis insignipes est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corambis insignipes est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Szüts en 2002 mesure 3,25 mm sur 2,85 mm et l'abdomen 6,1 mm et la carapace de la femelle mesure 3,75 mm sur 2,15 mm et l'abdomen 8,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Szüts en 2002 mesure 3,25 mm sur 2,85 mm et l'abdomen 6,1 mm et la carapace de la femelle mesure 3,75 mm sur 2,15 mm et l'abdomen 8,0 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1880 : Matériaux pour servir à une faune arachnologique de la Nouvelle Calédonie. Annales de la Société Entomologique de Belgique, vol. 23, (C.R.), p. 164-175.</t>
         </is>
